--- a/PF_inhibition_data.xlsx
+++ b/PF_inhibition_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patty\OneDrive\Documents\GitHub\Pseudo_fluor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939235B8-AC01-4668-B4FC-E3927C368534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CC66E6-8795-41B8-B657-DF2C2A9AAB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{461DA0C5-78C5-40F1-A456-EA7211700F50}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="114">
   <si>
     <t>Type</t>
   </si>
@@ -314,12 +314,6 @@
     <t>643E</t>
   </si>
   <si>
-    <t>642A</t>
-  </si>
-  <si>
-    <t>638A1</t>
-  </si>
-  <si>
     <t>633A</t>
   </si>
   <si>
@@ -332,12 +326,6 @@
     <t>630A</t>
   </si>
   <si>
-    <t>638C</t>
-  </si>
-  <si>
-    <t>647D</t>
-  </si>
-  <si>
     <t>Plate_no</t>
   </si>
   <si>
@@ -372,6 +360,27 @@
   </si>
   <si>
     <t>Percent_inhibition</t>
+  </si>
+  <si>
+    <t>628C</t>
+  </si>
+  <si>
+    <t>629A2A</t>
+  </si>
+  <si>
+    <t>638A1A</t>
+  </si>
+  <si>
+    <t>Pond</t>
+  </si>
+  <si>
+    <t>Sixty Lake</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Conness Pond</t>
   </si>
 </sst>
 </file>
@@ -415,7 +424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -436,11 +445,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -451,6 +469,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A0470F-77E8-43CE-91C0-2C04E90C4350}">
   <dimension ref="A1:U185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116:XFD118"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="P1" sqref="A1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -784,7 +805,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -817,28 +838,31 @@
         <v>5</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R1" t="s">
-        <v>108</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -858,7 +882,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G2" s="4">
         <v>0.153</v>
@@ -877,20 +901,23 @@
         <v>3.714018691588785E-2</v>
       </c>
       <c r="L2" s="4">
-        <f>100*(K2/$Q$2)</f>
+        <f t="shared" ref="L2:L33" si="0">100*(K2/$Q$2)</f>
         <v>19.575776085435898</v>
       </c>
       <c r="M2" s="4">
-        <f>100-L2</f>
+        <f t="shared" ref="M2:M33" si="1">100-L2</f>
         <v>80.424223914564095</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O2" s="5">
         <f>_xlfn.T.TEST(K2:K4,$U$2:$U$7,1,3)</f>
         <v>5.6056795273233945E-5</v>
       </c>
+      <c r="P2" t="s">
+        <v>111</v>
+      </c>
       <c r="Q2">
         <f>AVERAGE(K38:K43)</f>
         <v>0.18972523364485983</v>
@@ -923,7 +950,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G3" s="4">
         <v>0.153</v>
@@ -938,21 +965,24 @@
         <v>0.42799999999999999</v>
       </c>
       <c r="K3" s="4">
-        <f t="shared" ref="K3:K66" si="0">SLOPE(G3:J3, $G$1:$J$1)</f>
+        <f t="shared" ref="K3:K66" si="2">SLOPE(G3:J3, $G$1:$J$1)</f>
         <v>4.0242990654205606E-2</v>
       </c>
       <c r="L3" s="4">
-        <f>100*(K3/$Q$2)</f>
+        <f t="shared" si="0"/>
         <v>21.211195728205077</v>
       </c>
       <c r="M3" s="4">
-        <f>100-L3</f>
+        <f t="shared" si="1"/>
         <v>78.78880427179493</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O3" s="5"/>
+      <c r="P3" t="s">
+        <v>111</v>
+      </c>
       <c r="T3">
         <v>0.16163551401869161</v>
       </c>
@@ -977,7 +1007,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G4" s="4">
         <v>0.16200000000000001</v>
@@ -992,21 +1022,24 @@
         <v>0.621</v>
       </c>
       <c r="K4" s="4">
+        <f t="shared" si="2"/>
+        <v>6.7467289719626178E-2</v>
+      </c>
+      <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>6.7467289719626178E-2</v>
-      </c>
-      <c r="L4" s="4">
-        <f>100*(K4/$Q$2)</f>
         <v>35.560525304670797</v>
       </c>
       <c r="M4" s="4">
-        <f>100-L4</f>
+        <f t="shared" si="1"/>
         <v>64.43947469532921</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O4" s="5"/>
+      <c r="P4" t="s">
+        <v>111</v>
+      </c>
       <c r="T4">
         <v>0.16654205607476635</v>
       </c>
@@ -1031,7 +1064,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G5" s="2">
         <v>0.18099999999999999</v>
@@ -1046,24 +1079,27 @@
         <v>0.85</v>
       </c>
       <c r="K5" s="2">
+        <f t="shared" si="2"/>
+        <v>9.465420560747663E-2</v>
+      </c>
+      <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>9.465420560747663E-2</v>
-      </c>
-      <c r="L5" s="2">
-        <f>100*(K5/$Q$2)</f>
         <v>49.890151030018806</v>
       </c>
       <c r="M5" s="2">
-        <f>100-L5</f>
+        <f t="shared" si="1"/>
         <v>50.109848969981194</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O5">
         <f>_xlfn.T.TEST(K5:K7,$U$2:$U$7,1,3)</f>
         <v>3.6819761598873438E-5</v>
       </c>
+      <c r="P5" t="s">
+        <v>111</v>
+      </c>
       <c r="T5">
         <v>0.2188504672897196</v>
       </c>
@@ -1088,7 +1124,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6" s="2">
         <v>0.192</v>
@@ -1103,19 +1139,22 @@
         <v>0.92</v>
       </c>
       <c r="K6" s="2">
+        <f t="shared" si="2"/>
+        <v>9.7392523364485978E-2</v>
+      </c>
+      <c r="L6" s="2">
         <f t="shared" si="0"/>
-        <v>9.7392523364485978E-2</v>
-      </c>
-      <c r="L6" s="2">
-        <f>100*(K6/$Q$2)</f>
         <v>51.333458124390404</v>
       </c>
       <c r="M6" s="2">
-        <f>100-L6</f>
+        <f t="shared" si="1"/>
         <v>48.666541875609596</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="P6" t="s">
+        <v>111</v>
       </c>
       <c r="T6">
         <v>0.17417943925233645</v>
@@ -1141,7 +1180,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7" s="2">
         <v>0.20100000000000001</v>
@@ -1156,19 +1195,22 @@
         <v>0.90100000000000002</v>
       </c>
       <c r="K7" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9084112149532708E-2</v>
+      </c>
+      <c r="L7" s="2">
         <f t="shared" si="0"/>
-        <v>9.9084112149532708E-2</v>
-      </c>
-      <c r="L7" s="2">
-        <f>100*(K7/$Q$2)</f>
         <v>52.225057387466379</v>
       </c>
       <c r="M7" s="2">
-        <f>100-L7</f>
+        <f t="shared" si="1"/>
         <v>47.774942612533621</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="P7" t="s">
+        <v>111</v>
       </c>
       <c r="T7">
         <v>0.17987196261682242</v>
@@ -1194,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G8" s="4">
         <v>0.19</v>
@@ -1209,24 +1251,27 @@
         <v>0.25800000000000001</v>
       </c>
       <c r="K8" s="4">
+        <f t="shared" si="2"/>
+        <v>9.8504672897196267E-3</v>
+      </c>
+      <c r="L8" s="4">
         <f t="shared" si="0"/>
-        <v>9.8504672897196267E-3</v>
-      </c>
-      <c r="L8" s="4">
-        <f>100*(K8/$Q$2)</f>
         <v>5.1919647695142013</v>
       </c>
       <c r="M8" s="4">
-        <f>100-L8</f>
+        <f t="shared" si="1"/>
         <v>94.8080352304858</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O8" s="5">
         <f>_xlfn.T.TEST(K8:K10,$U$2:$U$7,1,3)</f>
         <v>4.8837156271872527E-7</v>
       </c>
+      <c r="P8" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
@@ -1245,7 +1290,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G9" s="4">
         <v>0.20200000000000001</v>
@@ -1260,21 +1305,24 @@
         <v>0.33200000000000002</v>
       </c>
       <c r="K9" s="4">
+        <f t="shared" si="2"/>
+        <v>1.8261682242990657E-2</v>
+      </c>
+      <c r="L9" s="4">
         <f t="shared" si="0"/>
-        <v>1.8261682242990657E-2</v>
-      </c>
-      <c r="L9" s="4">
-        <f>100*(K9/$Q$2)</f>
         <v>9.6253312709969165</v>
       </c>
       <c r="M9" s="4">
-        <f>100-L9</f>
+        <f t="shared" si="1"/>
         <v>90.374668729003076</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O9" s="5"/>
+      <c r="P9" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="10" spans="1:21" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
@@ -1293,7 +1341,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G10" s="4">
         <v>0.193</v>
@@ -1308,21 +1356,24 @@
         <v>0.315</v>
       </c>
       <c r="K10" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7672897196261684E-2</v>
+      </c>
+      <c r="L10" s="4">
         <f t="shared" si="0"/>
-        <v>1.7672897196261684E-2</v>
-      </c>
-      <c r="L10" s="4">
-        <f>100*(K10/$Q$2)</f>
         <v>9.3149956158931264</v>
       </c>
       <c r="M10" s="4">
-        <f>100-L10</f>
+        <f t="shared" si="1"/>
         <v>90.685004384106875</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O10" s="5"/>
+      <c r="P10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
@@ -1341,7 +1392,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G11" s="2">
         <v>0.192</v>
@@ -1356,24 +1407,27 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="K11" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3009345794392536E-2</v>
+      </c>
+      <c r="L11" s="2">
         <f t="shared" si="0"/>
-        <v>8.3009345794392536E-2</v>
-      </c>
-      <c r="L11" s="2">
-        <f>100*(K11/$Q$2)</f>
         <v>43.752401406854972</v>
       </c>
       <c r="M11" s="2">
-        <f>100-L11</f>
+        <f t="shared" si="1"/>
         <v>56.247598593145028</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O11">
         <f>_xlfn.T.TEST(K11:K13,$U$2:$U$7,1,3)</f>
         <v>8.431572071772804E-6</v>
       </c>
+      <c r="P11" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
@@ -1392,7 +1446,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G12" s="2">
         <v>0.18</v>
@@ -1407,19 +1461,22 @@
         <v>0.84299999999999997</v>
       </c>
       <c r="K12" s="2">
+        <f t="shared" si="2"/>
+        <v>9.843925233644861E-2</v>
+      </c>
+      <c r="L12" s="2">
         <f t="shared" si="0"/>
-        <v>9.843925233644861E-2</v>
-      </c>
-      <c r="L12" s="2">
-        <f>100*(K12/$Q$2)</f>
         <v>51.885165955686041</v>
       </c>
       <c r="M12" s="2">
-        <f>100-L12</f>
+        <f t="shared" si="1"/>
         <v>48.114834044313959</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="P12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1439,7 +1496,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G13" s="2">
         <v>0.185</v>
@@ -1454,19 +1511,22 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="K13" s="2">
+        <f t="shared" si="2"/>
+        <v>9.3102803738317752E-2</v>
+      </c>
+      <c r="L13" s="2">
         <f t="shared" si="0"/>
-        <v>9.3102803738317752E-2</v>
-      </c>
-      <c r="L13" s="2">
-        <f>100*(K13/$Q$2)</f>
         <v>49.072441208634224</v>
       </c>
       <c r="M13" s="2">
-        <f>100-L13</f>
+        <f t="shared" si="1"/>
         <v>50.927558791365776</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="P13" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1486,7 +1546,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" s="4">
         <v>0.184</v>
@@ -1501,24 +1561,27 @@
         <v>0.85</v>
       </c>
       <c r="K14" s="4">
+        <f t="shared" si="2"/>
+        <v>0.10091588785046729</v>
+      </c>
+      <c r="L14" s="4">
         <f t="shared" si="0"/>
-        <v>0.10091588785046729</v>
-      </c>
-      <c r="L14" s="4">
-        <f>100*(K14/$Q$2)</f>
         <v>53.190546092233724</v>
       </c>
       <c r="M14" s="4">
-        <f>100-L14</f>
+        <f t="shared" si="1"/>
         <v>46.809453907766276</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O14" s="5">
         <f>_xlfn.T.TEST(K14:K16,$U$2:$U$7,1,3)</f>
         <v>2.7482825143682496E-5</v>
       </c>
+      <c r="P14" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
@@ -1537,7 +1600,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G15" s="4">
         <v>0.19400000000000001</v>
@@ -1552,21 +1615,24 @@
         <v>0.9</v>
       </c>
       <c r="K15" s="4">
+        <f t="shared" si="2"/>
+        <v>0.11037383177570094</v>
+      </c>
+      <c r="L15" s="4">
         <f t="shared" si="0"/>
-        <v>0.11037383177570094</v>
-      </c>
-      <c r="L15" s="4">
-        <f>100*(K15/$Q$2)</f>
         <v>58.175620425012063</v>
       </c>
       <c r="M15" s="4">
-        <f>100-L15</f>
+        <f t="shared" si="1"/>
         <v>41.824379574987937</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O15" s="5"/>
+      <c r="P15" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
@@ -1585,7 +1651,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G16" s="4">
         <v>0.20300000000000001</v>
@@ -1600,23 +1666,26 @@
         <v>0.89500000000000002</v>
       </c>
       <c r="K16" s="4">
+        <f t="shared" si="2"/>
+        <v>0.10177570093457944</v>
+      </c>
+      <c r="L16" s="4">
         <f t="shared" si="0"/>
-        <v>0.10177570093457944</v>
-      </c>
-      <c r="L16" s="4">
-        <f>100*(K16/$Q$2)</f>
         <v>53.643734667940848</v>
       </c>
       <c r="M16" s="4">
-        <f>100-L16</f>
+        <f t="shared" si="1"/>
         <v>46.356265332059152</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -1633,7 +1702,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G17" s="2">
         <v>0.191</v>
@@ -1648,26 +1717,29 @@
         <v>0.69899999999999995</v>
       </c>
       <c r="K17" s="2">
+        <f t="shared" si="2"/>
+        <v>7.4355140186915886E-2</v>
+      </c>
+      <c r="L17" s="2">
         <f t="shared" si="0"/>
-        <v>7.4355140186915886E-2</v>
-      </c>
-      <c r="L17" s="2">
-        <f>100*(K17/$Q$2)</f>
         <v>39.190959873107197</v>
       </c>
       <c r="M17" s="2">
-        <f>100-L17</f>
+        <f t="shared" si="1"/>
         <v>60.809040126892803</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O17">
         <f>_xlfn.T.TEST(K17:K19,$U$2:$U$7,1,3)</f>
         <v>1.0358861003080799E-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -1684,7 +1756,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G18" s="2">
         <v>0.20399999999999999</v>
@@ -1699,22 +1771,25 @@
         <v>0.54400000000000004</v>
       </c>
       <c r="K18" s="2">
+        <f t="shared" si="2"/>
+        <v>4.8738317757009354E-2</v>
+      </c>
+      <c r="L18" s="2">
         <f t="shared" si="0"/>
-        <v>4.8738317757009354E-2</v>
-      </c>
-      <c r="L18" s="2">
-        <f>100*(K18/$Q$2)</f>
         <v>25.688895894702625</v>
       </c>
       <c r="M18" s="2">
-        <f>100-L18</f>
+        <f t="shared" si="1"/>
         <v>74.311104105297375</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -1731,7 +1806,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G19" s="2">
         <v>0.182</v>
@@ -1746,22 +1821,25 @@
         <v>0.62</v>
       </c>
       <c r="K19" s="2">
+        <f t="shared" si="2"/>
+        <v>6.3289719626168223E-2</v>
+      </c>
+      <c r="L19" s="2">
         <f t="shared" si="0"/>
-        <v>6.3289719626168223E-2</v>
-      </c>
-      <c r="L19" s="2">
-        <f>100*(K19/$Q$2)</f>
         <v>33.358619942267715</v>
       </c>
       <c r="M19" s="2">
-        <f>100-L19</f>
+        <f t="shared" si="1"/>
         <v>66.641380057732277</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -1793,26 +1871,29 @@
         <v>0.22700000000000001</v>
       </c>
       <c r="K20" s="4">
+        <f t="shared" si="2"/>
+        <v>3.4299065420560736E-3</v>
+      </c>
+      <c r="L20" s="4">
         <f t="shared" si="0"/>
-        <v>3.4299065420560736E-3</v>
-      </c>
-      <c r="L20" s="4">
-        <f>100*(K20/$Q$2)</f>
         <v>1.8078283400490618</v>
       </c>
       <c r="M20" s="4">
-        <f>100-L20</f>
+        <f t="shared" si="1"/>
         <v>98.192171659950944</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O20" s="5">
         <f>_xlfn.T.TEST(K20:K22,$U$2:$U$7,1,3)</f>
         <v>1.397567254856104E-6</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -1844,23 +1925,26 @@
         <v>0.217</v>
       </c>
       <c r="K21" s="4">
+        <f t="shared" si="2"/>
+        <v>2.4953271028037363E-3</v>
+      </c>
+      <c r="L21" s="4">
         <f t="shared" si="0"/>
-        <v>2.4953271028037363E-3</v>
-      </c>
-      <c r="L21" s="4">
-        <f>100*(K21/$Q$2)</f>
         <v>1.3152320621065376</v>
       </c>
       <c r="M21" s="4">
-        <f>100-L21</f>
+        <f t="shared" si="1"/>
         <v>98.684767937893469</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -1892,23 +1976,26 @@
         <v>0.20799999999999999</v>
       </c>
       <c r="K22" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7663551401869127E-3</v>
+      </c>
+      <c r="L22" s="4">
         <f t="shared" si="0"/>
-        <v>1.7663551401869127E-3</v>
-      </c>
-      <c r="L22" s="4">
-        <f>100*(K22/$Q$2)</f>
         <v>0.9310069653113684</v>
       </c>
       <c r="M22" s="4">
-        <f>100-L22</f>
+        <f t="shared" si="1"/>
         <v>99.068993034688631</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -1925,7 +2012,7 @@
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G23" s="2">
         <v>0.16900000000000001</v>
@@ -1940,26 +2027,29 @@
         <v>0.88</v>
       </c>
       <c r="K23" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1044392523364486</v>
+      </c>
+      <c r="L23" s="2">
         <f t="shared" si="0"/>
-        <v>0.1044392523364486</v>
-      </c>
-      <c r="L23" s="2">
-        <f>100*(K23/$Q$2)</f>
         <v>55.047634060077044</v>
       </c>
       <c r="M23" s="2">
-        <f>100-L23</f>
+        <f t="shared" si="1"/>
         <v>44.952365939922956</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O23">
         <f>_xlfn.T.TEST(K23:K25,$U$2:$U$7,1,3)</f>
         <v>5.4786056549162868E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -1976,7 +2066,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G24" s="2">
         <v>0.17499999999999999</v>
@@ -1991,22 +2081,25 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="K24" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10382242990654207</v>
+      </c>
+      <c r="L24" s="2">
         <f t="shared" si="0"/>
-        <v>0.10382242990654207</v>
-      </c>
-      <c r="L24" s="2">
-        <f>100*(K24/$Q$2)</f>
         <v>54.722520516634972</v>
       </c>
       <c r="M24" s="2">
-        <f>100-L24</f>
+        <f t="shared" si="1"/>
         <v>45.277479483365028</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -2023,7 +2116,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G25" s="2">
         <v>0.156</v>
@@ -2038,22 +2131,25 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="K25" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10881308411214952</v>
+      </c>
+      <c r="L25" s="2">
         <f t="shared" si="0"/>
-        <v>0.10881308411214952</v>
-      </c>
-      <c r="L25" s="2">
-        <f>100*(K25/$Q$2)</f>
         <v>57.352984640848035</v>
       </c>
       <c r="M25" s="2">
-        <f>100-L25</f>
+        <f t="shared" si="1"/>
         <v>42.647015359151965</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -2070,7 +2166,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G26" s="4">
         <v>0.19700000000000001</v>
@@ -2085,26 +2181,29 @@
         <v>0.27700000000000002</v>
       </c>
       <c r="K26" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0775700934579441E-2</v>
+      </c>
+      <c r="L26" s="4">
         <f t="shared" si="0"/>
-        <v>1.0775700934579441E-2</v>
-      </c>
-      <c r="L26" s="4">
-        <f>100*(K26/$Q$2)</f>
         <v>5.6796350846773009</v>
       </c>
       <c r="M26" s="4">
-        <f>100-L26</f>
+        <f t="shared" si="1"/>
         <v>94.320364915322699</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O26" s="5">
         <f>_xlfn.T.TEST(K26:K28,$U$2:$U$7,1,3)</f>
         <v>1.0274231414747614E-6</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -2121,7 +2220,7 @@
         <v>13</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G27" s="4">
         <v>0.19400000000000001</v>
@@ -2136,23 +2235,26 @@
         <v>0.27200000000000002</v>
       </c>
       <c r="K27" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0710280373831777E-2</v>
+      </c>
+      <c r="L27" s="4">
         <f t="shared" si="0"/>
-        <v>1.0710280373831777E-2</v>
-      </c>
-      <c r="L27" s="4">
-        <f>100*(K27/$Q$2)</f>
         <v>5.6451533452213241</v>
       </c>
       <c r="M27" s="4">
-        <f>100-L27</f>
+        <f t="shared" si="1"/>
         <v>94.354846654778669</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -2169,7 +2271,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G28" s="4">
         <v>0.188</v>
@@ -2184,23 +2286,26 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="K28" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5747663551401871E-2</v>
+      </c>
+      <c r="L28" s="4">
         <f t="shared" si="0"/>
-        <v>1.5747663551401871E-2</v>
-      </c>
-      <c r="L28" s="4">
-        <f>100*(K28/$Q$2)</f>
         <v>8.3002472833315277</v>
       </c>
       <c r="M28" s="4">
-        <f>100-L28</f>
+        <f t="shared" si="1"/>
         <v>91.69975271666847</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>2</v>
       </c>
@@ -2232,26 +2337,29 @@
         <v>0.86</v>
       </c>
       <c r="K29" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9626168224299066E-2</v>
+      </c>
+      <c r="L29" s="2">
         <f t="shared" si="0"/>
-        <v>9.9626168224299066E-2</v>
-      </c>
-      <c r="L29" s="2">
-        <f>100*(K29/$Q$2)</f>
         <v>52.510763228673042</v>
       </c>
       <c r="M29" s="2">
-        <f>100-L29</f>
+        <f t="shared" si="1"/>
         <v>47.489236771326958</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O29">
         <f>_xlfn.T.TEST(K29:K31,$U$2:$U$7,1,3)</f>
         <v>2.8704749640080871E-5</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -2283,22 +2391,25 @@
         <v>0.89</v>
       </c>
       <c r="K30" s="2">
+        <f t="shared" si="2"/>
+        <v>9.8897196261682252E-2</v>
+      </c>
+      <c r="L30" s="2">
         <f t="shared" si="0"/>
-        <v>9.8897196261682252E-2</v>
-      </c>
-      <c r="L30" s="2">
-        <f>100*(K30/$Q$2)</f>
         <v>52.126538131877872</v>
       </c>
       <c r="M30" s="2">
-        <f>100-L30</f>
+        <f t="shared" si="1"/>
         <v>47.873461868122128</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>2</v>
       </c>
@@ -2330,22 +2441,25 @@
         <v>0.84</v>
       </c>
       <c r="K31" s="2">
+        <f t="shared" si="2"/>
+        <v>9.3485981308411223E-2</v>
+      </c>
+      <c r="L31" s="2">
         <f t="shared" si="0"/>
-        <v>9.3485981308411223E-2</v>
-      </c>
-      <c r="L31" s="2">
-        <f>100*(K31/$Q$2)</f>
         <v>49.274405682590661</v>
       </c>
       <c r="M31" s="2">
-        <f>100-L31</f>
+        <f t="shared" si="1"/>
         <v>50.725594317409339</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" s="5" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="5" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>2</v>
       </c>
@@ -2377,26 +2491,29 @@
         <v>0.51400000000000001</v>
       </c>
       <c r="K32" s="4">
+        <f t="shared" si="2"/>
+        <v>5.1345794392523368E-2</v>
+      </c>
+      <c r="L32" s="4">
         <f t="shared" si="0"/>
-        <v>5.1345794392523368E-2</v>
-      </c>
-      <c r="L32" s="4">
-        <f>100*(K32/$Q$2)</f>
         <v>27.063239510162262</v>
       </c>
       <c r="M32" s="4">
-        <f>100-L32</f>
+        <f t="shared" si="1"/>
         <v>72.936760489837738</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O32" s="5">
         <f>_xlfn.T.TEST(K32:K34,$U$2:$U$7,1,3)</f>
         <v>1.6724590939759457E-6</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" s="5" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P32" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="5" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
         <v>2</v>
       </c>
@@ -2428,22 +2545,25 @@
         <v>0.48199999999999998</v>
       </c>
       <c r="K33" s="4">
+        <f t="shared" si="2"/>
+        <v>4.5102803738317751E-2</v>
+      </c>
+      <c r="L33" s="4">
         <f t="shared" si="0"/>
-        <v>4.5102803738317751E-2</v>
-      </c>
-      <c r="L33" s="4">
-        <f>100*(K33/$Q$2)</f>
         <v>23.772696373506196</v>
       </c>
       <c r="M33" s="4">
-        <f>100-L33</f>
+        <f t="shared" si="1"/>
         <v>76.227303626493807</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="5" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="5" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
         <v>2</v>
       </c>
@@ -2475,22 +2595,25 @@
         <v>0.47799999999999998</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.257943925233644E-2</v>
       </c>
       <c r="L34" s="4">
-        <f>100*(K34/$Q$2)</f>
+        <f t="shared" ref="L34:L65" si="3">100*(K34/$Q$2)</f>
         <v>22.442686423061382</v>
       </c>
       <c r="M34" s="4">
-        <f>100-L34</f>
+        <f t="shared" ref="M34:M65" si="4">100-L34</f>
         <v>77.557313576938611</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>2</v>
       </c>
@@ -2522,26 +2645,29 @@
         <v>0.56499999999999995</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.4037383177570078E-2</v>
       </c>
       <c r="L35" s="2">
-        <f>100*(K35/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>28.481916790636717</v>
       </c>
       <c r="M35" s="2">
-        <f>100-L35</f>
+        <f t="shared" si="4"/>
         <v>71.518083209363283</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O35">
         <f>_xlfn.T.TEST(K35:K37,$U$2:$U$7,1,3)</f>
         <v>1.0311704222814528E-6</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P35" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>2</v>
       </c>
@@ -2573,22 +2699,25 @@
         <v>0.41399999999999998</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.3579439252336446E-2</v>
       </c>
       <c r="L36" s="2">
-        <f>100*(K36/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>17.698984266474881</v>
       </c>
       <c r="M36" s="2">
-        <f>100-L36</f>
+        <f t="shared" si="4"/>
         <v>82.301015733525119</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>2</v>
       </c>
@@ -2620,22 +2749,25 @@
         <v>0.49099999999999999</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.3280373831775701E-2</v>
       </c>
       <c r="L37" s="2">
-        <f>100*(K37/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>22.812133631518279</v>
       </c>
       <c r="M37" s="2">
-        <f>100-L37</f>
+        <f t="shared" si="4"/>
         <v>77.187866368481721</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4">
         <v>2</v>
       </c>
@@ -2667,26 +2799,29 @@
         <v>1.776</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.20520560747663552</v>
       </c>
       <c r="L38" s="4">
-        <f>100*(K38/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>108.15936474783996</v>
       </c>
       <c r="M38" s="4">
-        <f>100-L38</f>
+        <f t="shared" si="4"/>
         <v>-8.1593647478399589</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O38" s="5">
         <f>_xlfn.T.TEST(K38:K40,$U$2:$U$7,1,3)</f>
         <v>0.29129910935730757</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P38" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4">
         <v>2</v>
       </c>
@@ -2718,22 +2853,25 @@
         <v>1.4119999999999999</v>
       </c>
       <c r="K39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.1711214953271028</v>
       </c>
       <c r="L39" s="4">
-        <f>100*(K39/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>90.194378491276112</v>
       </c>
       <c r="M39" s="4">
-        <f>100-L39</f>
+        <f t="shared" si="4"/>
         <v>9.8056215087238883</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4">
         <v>2</v>
       </c>
@@ -2765,22 +2903,25 @@
         <v>1.4711000000000001</v>
       </c>
       <c r="K40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16645140186915888</v>
       </c>
       <c r="L40" s="4">
-        <f>100*(K40/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>87.732874890397326</v>
       </c>
       <c r="M40" s="4">
-        <f>100-L40</f>
+        <f t="shared" si="4"/>
         <v>12.267125109602674</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>2</v>
       </c>
@@ -2812,26 +2953,29 @@
         <v>1.7809999999999999</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.2188504672897196</v>
       </c>
       <c r="L41" s="2">
-        <f>100*(K41/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>115.3512704058008</v>
       </c>
       <c r="M41" s="2">
-        <f>100-L41</f>
+        <f t="shared" si="4"/>
         <v>-15.351270405800804</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O41">
         <f>_xlfn.T.TEST(K41:K43,$U$2:$U$7,1,3)</f>
         <v>0.26887350100627094</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P41" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>2</v>
       </c>
@@ -2863,22 +3007,25 @@
         <v>1.5740000000000001</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.18470093457943923</v>
       </c>
       <c r="L42" s="2">
-        <f>100*(K42/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>97.351802409780973</v>
       </c>
       <c r="M42" s="2">
-        <f>100-L42</f>
+        <f t="shared" si="4"/>
         <v>2.6481975902190271</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>2</v>
       </c>
@@ -2910,22 +3057,25 @@
         <v>1.5881000000000001</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.19202149532710283</v>
       </c>
       <c r="L43" s="2">
-        <f>100*(K43/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>101.21030905490478</v>
       </c>
       <c r="M43" s="2">
-        <f>100-L43</f>
+        <f t="shared" si="4"/>
         <v>-1.2103090549047835</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>2</v>
       </c>
@@ -2957,26 +3107,29 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="K44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.6355140186915894E-3</v>
       </c>
       <c r="L44" s="4">
-        <f>100*(K44/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>2.9703555559934189</v>
       </c>
       <c r="M44" s="4">
-        <f>100-L44</f>
+        <f t="shared" si="4"/>
         <v>97.029644444006578</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O44" s="5">
         <f>_xlfn.T.TEST(K44:K46,$U$2:$U$7,1,3)</f>
         <v>4.2210634974584581E-7</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P44" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>2</v>
       </c>
@@ -3008,22 +3161,25 @@
         <v>0.28299999999999997</v>
       </c>
       <c r="K45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4934579439252336E-2</v>
       </c>
       <c r="L45" s="4">
-        <f>100*(K45/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>7.8716885215215306</v>
       </c>
       <c r="M45" s="4">
-        <f>100-L45</f>
+        <f t="shared" si="4"/>
         <v>92.128311478478466</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
         <v>2</v>
       </c>
@@ -3055,22 +3211,25 @@
         <v>0.27</v>
       </c>
       <c r="K46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0121495327102806E-2</v>
       </c>
       <c r="L46" s="4">
-        <f>100*(K46/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>5.3348176901175348</v>
       </c>
       <c r="M46" s="4">
-        <f>100-L46</f>
+        <f t="shared" si="4"/>
         <v>94.665182309882468</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>1</v>
       </c>
@@ -3102,26 +3261,29 @@
         <v>0.86699999999999999</v>
       </c>
       <c r="K47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.5299065420560741E-2</v>
       </c>
       <c r="L47" s="2">
-        <f>100*(K47/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>50.230042461799151</v>
       </c>
       <c r="M47" s="2">
-        <f>100-L47</f>
+        <f t="shared" si="4"/>
         <v>49.769957538200849</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O47">
         <f>_xlfn.T.TEST(K47:K49,$U$2:$U$7,1,3)</f>
         <v>3.92341644534879E-5</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P47" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -3153,22 +3315,25 @@
         <v>0.81899999999999995</v>
       </c>
       <c r="K48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.357943925233643E-2</v>
       </c>
       <c r="L48" s="2">
-        <f>100*(K48/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>49.323665310384904</v>
       </c>
       <c r="M48" s="2">
-        <f>100-L48</f>
+        <f t="shared" si="4"/>
         <v>50.676334689615096</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>1</v>
       </c>
@@ -3200,22 +3365,25 @@
         <v>0.79500000000000004</v>
       </c>
       <c r="K49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.5635514018691595E-2</v>
       </c>
       <c r="L49" s="2">
-        <f>100*(K49/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>50.407377121858467</v>
       </c>
       <c r="M49" s="2">
-        <f>100-L49</f>
+        <f t="shared" si="4"/>
         <v>49.592622878141533</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4">
         <v>1</v>
       </c>
@@ -3247,26 +3415,29 @@
         <v>0.33200000000000002</v>
       </c>
       <c r="K50" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.97196261682243E-2</v>
       </c>
       <c r="L50" s="4">
-        <f>100*(K50/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>10.393781464587253</v>
       </c>
       <c r="M50" s="4">
-        <f>100-L50</f>
+        <f t="shared" si="4"/>
         <v>89.606218535412751</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O50" s="5">
         <f>_xlfn.T.TEST(K50:K52,$U$2:$U$7,1,3)</f>
         <v>1.5175563340425614E-6</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P50" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4">
         <v>1</v>
       </c>
@@ -3298,22 +3469,25 @@
         <v>0.312</v>
       </c>
       <c r="K51" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.7196261682242989E-2</v>
       </c>
       <c r="L51" s="4">
-        <f>100*(K51/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>9.063771514142438</v>
       </c>
       <c r="M51" s="4">
-        <f>100-L51</f>
+        <f t="shared" si="4"/>
         <v>90.936228485857555</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4">
         <v>1</v>
       </c>
@@ -3345,22 +3519,25 @@
         <v>0.36699999999999999</v>
       </c>
       <c r="K52" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.2084112149532709E-2</v>
       </c>
       <c r="L52" s="4">
-        <f>100*(K52/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>11.640050047781838</v>
       </c>
       <c r="M52" s="4">
-        <f>100-L52</f>
+        <f t="shared" si="4"/>
         <v>88.359949952218159</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>1</v>
       </c>
@@ -3392,26 +3569,29 @@
         <v>0.221</v>
       </c>
       <c r="K53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.7943925233644869E-3</v>
       </c>
       <c r="L53" s="2">
-        <f>100*(K53/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>3.0540969232436486</v>
       </c>
       <c r="M53" s="2">
-        <f>100-L53</f>
+        <f t="shared" si="4"/>
         <v>96.945903076756352</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O53">
         <f>_xlfn.T.TEST(K53:K55,$U$2:$U$7,1,3)</f>
         <v>1.5316431072948991E-7</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P53" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>1</v>
       </c>
@@ -3443,22 +3623,25 @@
         <v>0.246</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.2056074766355133E-3</v>
       </c>
       <c r="L54" s="2">
-        <f>100*(K54/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>3.7979173029368583</v>
       </c>
       <c r="M54" s="2">
-        <f>100-L54</f>
+        <f t="shared" si="4"/>
         <v>96.202082697063148</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>1</v>
       </c>
@@ -3490,22 +3673,25 @@
         <v>0.33700000000000002</v>
       </c>
       <c r="K55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.9981308411214951E-2</v>
       </c>
       <c r="L55" s="2">
-        <f>100*(K55/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>10.531708422411159</v>
       </c>
       <c r="M55" s="2">
-        <f>100-L55</f>
+        <f t="shared" si="4"/>
         <v>89.468291577588843</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4">
         <v>1</v>
       </c>
@@ -3537,26 +3723,29 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="K56" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.0691588785046739E-2</v>
       </c>
       <c r="L56" s="4">
-        <f>100*(K56/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>47.801542811542518</v>
       </c>
       <c r="M56" s="4">
-        <f>100-L56</f>
+        <f t="shared" si="4"/>
         <v>52.198457188457482</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O56" s="5">
         <f>_xlfn.T.TEST(K56:K58,$U$2:$U$7,1,3)</f>
         <v>2.6919638532827796E-5</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P56" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4">
         <v>1</v>
       </c>
@@ -3588,22 +3777,25 @@
         <v>0.93</v>
       </c>
       <c r="K57" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.10537383177570094</v>
       </c>
       <c r="L57" s="4">
-        <f>100*(K57/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>55.540230338019555</v>
       </c>
       <c r="M57" s="4">
-        <f>100-L57</f>
+        <f t="shared" si="4"/>
         <v>44.459769661980445</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4">
         <v>1</v>
       </c>
@@ -3635,22 +3827,25 @@
         <v>0.91800000000000004</v>
       </c>
       <c r="K58" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.1097943925233645</v>
       </c>
       <c r="L58" s="4">
-        <f>100*(K58/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>57.87021073268771</v>
       </c>
       <c r="M58" s="4">
-        <f>100-L58</f>
+        <f t="shared" si="4"/>
         <v>42.12978926731229</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P58" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>1</v>
       </c>
@@ -3682,26 +3877,29 @@
         <v>0.51900000000000002</v>
       </c>
       <c r="K59" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1700934579439251E-2</v>
       </c>
       <c r="L59" s="2">
-        <f>100*(K59/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>27.250426095780416</v>
       </c>
       <c r="M59" s="2">
-        <f>100-L59</f>
+        <f t="shared" si="4"/>
         <v>72.749573904219588</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O59">
         <f>_xlfn.T.TEST(K59:K61,$U$2:$U$7,1,3)</f>
         <v>2.9338588084292404E-6</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P59" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>1</v>
       </c>
@@ -3733,22 +3931,25 @@
         <v>0.59699999999999998</v>
       </c>
       <c r="K60" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.8261682242990658E-2</v>
       </c>
       <c r="L60" s="2">
-        <f>100*(K60/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>30.708451966936938</v>
       </c>
       <c r="M60" s="2">
-        <f>100-L60</f>
+        <f t="shared" si="4"/>
         <v>69.291548033063066</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P60" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>1</v>
       </c>
@@ -3780,22 +3981,25 @@
         <v>0.60899999999999999</v>
       </c>
       <c r="K61" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.9420560747663553E-2</v>
       </c>
       <c r="L61" s="2">
-        <f>100*(K61/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>31.319271351585666</v>
       </c>
       <c r="M61" s="2">
-        <f>100-L61</f>
+        <f t="shared" si="4"/>
         <v>68.68072864841433</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4">
         <v>1</v>
       </c>
@@ -3827,26 +4031,29 @@
         <v>0.91</v>
       </c>
       <c r="K62" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.10626168224299065</v>
       </c>
       <c r="L62" s="4">
-        <f>100*(K62/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>56.008196802064958</v>
       </c>
       <c r="M62" s="4">
-        <f>100-L62</f>
+        <f t="shared" si="4"/>
         <v>43.991803197935042</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O62" s="5">
         <f>_xlfn.T.TEST(K62:K64,$U$2:$U$7,1,3)</f>
         <v>1.906006499608347E-5</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P62" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
         <v>1</v>
       </c>
@@ -3878,22 +4085,25 @@
         <v>0.94</v>
       </c>
       <c r="K63" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.10868224299065418</v>
       </c>
       <c r="L63" s="4">
-        <f>100*(K63/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>57.284021161936082</v>
       </c>
       <c r="M63" s="4">
-        <f>100-L63</f>
+        <f t="shared" si="4"/>
         <v>42.715978838063918</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4">
         <v>1</v>
       </c>
@@ -3925,22 +4135,25 @@
         <v>0.9</v>
       </c>
       <c r="K64" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.3607476635514025E-2</v>
       </c>
       <c r="L64" s="4">
-        <f>100*(K64/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>49.338443198723191</v>
       </c>
       <c r="M64" s="4">
-        <f>100-L64</f>
+        <f t="shared" si="4"/>
         <v>50.661556801276809</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P64" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>1</v>
       </c>
@@ -3972,26 +4185,29 @@
         <v>0.78600000000000003</v>
       </c>
       <c r="K65" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.4130841121495334E-2</v>
       </c>
       <c r="L65" s="2">
-        <f>100*(K65/$Q$2)</f>
+        <f t="shared" si="3"/>
         <v>49.614297114371006</v>
       </c>
       <c r="M65" s="2">
-        <f>100-L65</f>
+        <f t="shared" si="4"/>
         <v>50.385702885628994</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O65">
         <f>_xlfn.T.TEST(K65:K67,$U$2:$U$7,1,3)</f>
         <v>1.1650026425083229E-4</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P65" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>1</v>
       </c>
@@ -4023,22 +4239,25 @@
         <v>0.62</v>
       </c>
       <c r="K66" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.4663551401869149E-2</v>
       </c>
       <c r="L66" s="2">
-        <f>100*(K66/$Q$2)</f>
+        <f t="shared" ref="L66:L97" si="5">100*(K66/$Q$2)</f>
         <v>34.082736470843216</v>
       </c>
       <c r="M66" s="2">
-        <f>100-L66</f>
+        <f t="shared" ref="M66:M97" si="6">100-L66</f>
         <v>65.917263529156784</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P66" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>1</v>
       </c>
@@ -4070,22 +4289,25 @@
         <v>0.79100000000000004</v>
       </c>
       <c r="K67" s="2">
-        <f t="shared" ref="K67:K91" si="1">SLOPE(G67:J67, $G$1:$J$1)</f>
+        <f t="shared" ref="K67:K91" si="7">SLOPE(G67:J67, $G$1:$J$1)</f>
         <v>8.7803738317757007E-2</v>
       </c>
       <c r="L67" s="2">
-        <f>100*(K67/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>46.279420312700111</v>
       </c>
       <c r="M67" s="2">
-        <f>100-L67</f>
+        <f t="shared" si="6"/>
         <v>53.720579687299889</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
         <v>1</v>
       </c>
@@ -4117,26 +4339,29 @@
         <v>0.48699999999999999</v>
       </c>
       <c r="K68" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4.869158878504673E-2</v>
       </c>
       <c r="L68" s="4">
-        <f>100*(K68/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>25.664266080805493</v>
       </c>
       <c r="M68" s="4">
-        <f>100-L68</f>
+        <f t="shared" si="6"/>
         <v>74.33573391919451</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O68" s="5">
         <f>_xlfn.T.TEST(K68:K70,$U$2:$U$7,1,3)</f>
         <v>8.8375718576979553E-7</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P68" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
         <v>1</v>
       </c>
@@ -4168,22 +4393,25 @@
         <v>0.51</v>
       </c>
       <c r="K69" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4.5205607476635518E-2</v>
       </c>
       <c r="L69" s="4">
-        <f>100*(K69/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>23.826881964079881</v>
       </c>
       <c r="M69" s="4">
-        <f>100-L69</f>
+        <f t="shared" si="6"/>
         <v>76.173118035920112</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P69" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4">
         <v>1</v>
       </c>
@@ -4215,22 +4443,25 @@
         <v>0.56599999999999995</v>
       </c>
       <c r="K70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6.0850467289719622E-2</v>
       </c>
       <c r="L70" s="4">
-        <f>100*(K70/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>32.07294365683773</v>
       </c>
       <c r="M70" s="4">
-        <f>100-L70</f>
+        <f t="shared" si="6"/>
         <v>67.927056343162263</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>1</v>
       </c>
@@ -4262,26 +4493,29 @@
         <v>0.48299999999999998</v>
       </c>
       <c r="K71" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4.1766355140186909E-2</v>
       </c>
       <c r="L71" s="2">
-        <f>100*(K71/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>22.014127661251386</v>
       </c>
       <c r="M71" s="2">
-        <f>100-L71</f>
+        <f t="shared" si="6"/>
         <v>77.985872338748607</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O71">
         <f>_xlfn.T.TEST(K71:K73,$U$2:$U$7,1,3)</f>
         <v>7.1182369037796521E-5</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P71" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>1</v>
       </c>
@@ -4313,22 +4547,25 @@
         <v>0.73</v>
       </c>
       <c r="K72" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="L72" s="2">
-        <f>100*(K72/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>39.003773287489032</v>
       </c>
       <c r="M72" s="2">
-        <f>100-L72</f>
+        <f t="shared" si="6"/>
         <v>60.996226712510968</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P72" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>1</v>
       </c>
@@ -4360,22 +4597,25 @@
         <v>0.65300000000000002</v>
       </c>
       <c r="K73" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6.2971962616822433E-2</v>
       </c>
       <c r="L73" s="2">
-        <f>100*(K73/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>33.191137207767255</v>
       </c>
       <c r="M73" s="2">
-        <f>100-L73</f>
+        <f t="shared" si="6"/>
         <v>66.808862792232745</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P73" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4">
         <v>2</v>
       </c>
@@ -4407,26 +4647,29 @@
         <v>0.33800000000000002</v>
       </c>
       <c r="K74" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.1728971962616823E-2</v>
       </c>
       <c r="L74" s="4">
-        <f>100*(K74/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>11.452863462163679</v>
       </c>
       <c r="M74" s="4">
-        <f>100-L74</f>
+        <f t="shared" si="6"/>
         <v>88.547136537836323</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O74" s="5">
         <f>_xlfn.T.TEST(K74:K76,$U$2:$U$7,1,3)</f>
         <v>5.1972229933668202E-7</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P74" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4">
         <v>2</v>
       </c>
@@ -4458,22 +4701,25 @@
         <v>0.41</v>
       </c>
       <c r="K75" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.1672897196261686E-2</v>
       </c>
       <c r="L75" s="4">
-        <f>100*(K75/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>16.694087859472134</v>
       </c>
       <c r="M75" s="4">
-        <f>100-L75</f>
+        <f t="shared" si="6"/>
         <v>83.305912140527866</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P75" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4">
         <v>2</v>
       </c>
@@ -4505,22 +4751,25 @@
         <v>0.41</v>
       </c>
       <c r="K76" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.1158878504672891E-2</v>
       </c>
       <c r="L76" s="4">
-        <f>100*(K76/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>16.42315990660374</v>
       </c>
       <c r="M76" s="4">
-        <f>100-L76</f>
+        <f t="shared" si="6"/>
         <v>83.576840093396257</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P76" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>2</v>
       </c>
@@ -4552,26 +4801,29 @@
         <v>0.41499999999999998</v>
       </c>
       <c r="K77" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.3186915887850471E-2</v>
       </c>
       <c r="L77" s="2">
-        <f>100*(K77/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>17.492093829739023</v>
       </c>
       <c r="M77" s="2">
-        <f>100-L77</f>
+        <f t="shared" si="6"/>
         <v>82.507906170260981</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O77">
         <f>_xlfn.T.TEST(K77:K79,$U$2:$U$7,1,3)</f>
         <v>2.5898910132671689E-6</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P77" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>2</v>
       </c>
@@ -4603,22 +4855,25 @@
         <v>0.42199999999999999</v>
       </c>
       <c r="K78" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.4028037383177563E-2</v>
       </c>
       <c r="L78" s="2">
-        <f>100*(K78/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>17.935430479887291</v>
       </c>
       <c r="M78" s="2">
-        <f>100-L78</f>
+        <f t="shared" si="6"/>
         <v>82.064569520112713</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P78" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>2</v>
       </c>
@@ -4650,22 +4905,25 @@
         <v>0.45</v>
       </c>
       <c r="K79" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.7542056074766357E-2</v>
       </c>
       <c r="L79" s="2">
-        <f>100*(K79/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>19.787592484951183</v>
       </c>
       <c r="M79" s="2">
-        <f>100-L79</f>
+        <f t="shared" si="6"/>
         <v>80.212407515048824</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P79" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4">
         <v>2</v>
       </c>
@@ -4682,7 +4940,7 @@
         <v>22</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G80" s="4">
         <v>0.17699999999999999</v>
@@ -4697,26 +4955,29 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="K80" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.0813084112149535E-2</v>
       </c>
       <c r="L80" s="4">
-        <f>100*(K80/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>5.6993389357950024</v>
       </c>
       <c r="M80" s="4">
-        <f>100-L80</f>
+        <f t="shared" si="6"/>
         <v>94.300661064205002</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O80" s="5">
         <f>_xlfn.T.TEST(K80:K82,$U$2:$U$7,1,3)</f>
         <v>4.6675676308352501E-7</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P80" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4">
         <v>2</v>
       </c>
@@ -4733,7 +4994,7 @@
         <v>22</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G81" s="4">
         <v>0.187</v>
@@ -4748,22 +5009,25 @@
         <v>0.23400000000000001</v>
       </c>
       <c r="K81" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6.504672897196263E-3</v>
       </c>
       <c r="L81" s="4">
-        <f>100*(K81/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>3.4284700944799664</v>
       </c>
       <c r="M81" s="4">
-        <f>100-L81</f>
+        <f t="shared" si="6"/>
         <v>96.571529905520038</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P81" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4">
         <v>2</v>
       </c>
@@ -4780,7 +5044,7 @@
         <v>22</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G82" s="4">
         <v>0.17799999999999999</v>
@@ -4795,22 +5059,25 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="K82" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.3925233644859836E-3</v>
       </c>
       <c r="L82" s="4">
-        <f>100*(K82/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>1.2610464715328622</v>
       </c>
       <c r="M82" s="4">
-        <f>100-L82</f>
+        <f t="shared" si="6"/>
         <v>98.738953528467135</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P82" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>2</v>
       </c>
@@ -4827,7 +5094,7 @@
         <v>22</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G83" s="2">
         <v>0.16200000000000001</v>
@@ -4842,26 +5109,29 @@
         <v>0.222</v>
       </c>
       <c r="K83" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>8.3457943925233629E-3</v>
       </c>
       <c r="L83" s="2">
-        <f>100*(K83/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>4.3988847620267366</v>
       </c>
       <c r="M83" s="2">
-        <f>100-L83</f>
+        <f t="shared" si="6"/>
         <v>95.601115237973261</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O83">
         <f>_xlfn.T.TEST(K83:K85,$U$2:$U$7,1,3)</f>
         <v>8.1083689808127487E-7</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P83" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>2</v>
       </c>
@@ -4878,7 +5148,7 @@
         <v>22</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G84" s="2">
         <v>0.183</v>
@@ -4893,22 +5163,25 @@
         <v>0.20200000000000001</v>
       </c>
       <c r="K84" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.7102803738317783E-3</v>
       </c>
       <c r="L84" s="2">
-        <f>100*(K84/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>1.4285292060333206</v>
       </c>
       <c r="M84" s="2">
-        <f>100-L84</f>
+        <f t="shared" si="6"/>
         <v>98.571470793966682</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P84" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>2</v>
       </c>
@@ -4925,7 +5198,7 @@
         <v>22</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G85" s="2">
         <v>0.16700000000000001</v>
@@ -4940,22 +5213,25 @@
         <v>0.19800000000000001</v>
       </c>
       <c r="K85" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4.1028037383177571E-3</v>
       </c>
       <c r="L85" s="2">
-        <f>100*(K85/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>2.1624976601676797</v>
       </c>
       <c r="M85" s="2">
-        <f>100-L85</f>
+        <f t="shared" si="6"/>
         <v>97.837502339832326</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P85" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4">
         <v>2</v>
       </c>
@@ -4987,26 +5263,29 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="K86" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-5.9813084112149591E-4</v>
       </c>
       <c r="L86" s="4">
-        <f>100*(K86/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>-0.31526161788321555</v>
       </c>
       <c r="M86" s="4">
-        <f>100-L86</f>
+        <f t="shared" si="6"/>
         <v>100.31526161788321</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O86" s="5">
         <f>_xlfn.T.TEST(K86:K88,$U$2:$U$7,1,3)</f>
         <v>1.2984597385953269E-6</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P86" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4">
         <v>2</v>
       </c>
@@ -5038,22 +5317,25 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="K87" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-1.6168224299065435E-3</v>
       </c>
       <c r="L87" s="4">
-        <f>100*(K87/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>-0.85219156084056691</v>
       </c>
       <c r="M87" s="4">
-        <f>100-L87</f>
+        <f t="shared" si="6"/>
         <v>100.85219156084057</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P87" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4">
         <v>2</v>
       </c>
@@ -5085,22 +5367,25 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="K88" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-1.6542056074766371E-3</v>
       </c>
       <c r="L88" s="4">
-        <f>100*(K88/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>-0.87189541195826803</v>
       </c>
       <c r="M88" s="4">
-        <f>100-L88</f>
+        <f t="shared" si="6"/>
         <v>100.87189541195826</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P88" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>2</v>
       </c>
@@ -5132,26 +5417,29 @@
         <v>1.0740000000000001</v>
       </c>
       <c r="K89" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.12259813084112149</v>
       </c>
       <c r="L89" s="2">
-        <f>100*(K89/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>64.618779740500273</v>
       </c>
       <c r="M89" s="2">
-        <f>100-L89</f>
+        <f t="shared" si="6"/>
         <v>35.381220259499727</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O89">
         <f>_xlfn.T.TEST(K89:K91,$U$2:$U$7,1,3)</f>
         <v>9.1584574167846607E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P89" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>2</v>
       </c>
@@ -5183,22 +5471,25 @@
         <v>0.879</v>
       </c>
       <c r="K90" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.10209345794392523</v>
       </c>
       <c r="L90" s="2">
-        <f>100*(K90/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>53.811217402441301</v>
       </c>
       <c r="M90" s="2">
-        <f>100-L90</f>
+        <f t="shared" si="6"/>
         <v>46.188782597558699</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P90" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>2</v>
       </c>
@@ -5230,22 +5521,25 @@
         <v>0.60199999999999998</v>
       </c>
       <c r="K91" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6.2439252336448585E-2</v>
       </c>
       <c r="L91" s="2">
-        <f>100*(K91/$Q$2)</f>
+        <f t="shared" si="5"/>
         <v>32.910357329340009</v>
       </c>
       <c r="M91" s="2">
-        <f>100-L91</f>
+        <f t="shared" si="6"/>
         <v>67.089642670659998</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P91" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4">
         <v>1</v>
       </c>
@@ -5262,7 +5556,7 @@
         <v>13</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G92" s="4">
         <v>0.224</v>
@@ -5281,22 +5575,25 @@
         <v>1.2401869158878507E-2</v>
       </c>
       <c r="L92" s="4">
-        <f>100*(K92/$R$2)</f>
+        <f t="shared" ref="L92:L123" si="8">100*(K92/$R$2)</f>
         <v>7.0009452419159848</v>
       </c>
       <c r="M92" s="4">
-        <f>100-L92</f>
+        <f t="shared" si="6"/>
         <v>92.999054758084014</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O92" s="5">
         <f>_xlfn.T.TEST(K92:K94,$T$2:$T$7,1,3)</f>
         <v>7.1299681548859389E-7</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P92" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4">
         <v>1</v>
       </c>
@@ -5313,7 +5610,7 @@
         <v>13</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G93" s="4">
         <v>0.20300000000000001</v>
@@ -5328,22 +5625,25 @@
         <v>0.3</v>
       </c>
       <c r="K93" s="4">
-        <f t="shared" ref="K93:K156" si="2">SLOPE(G93:J93, $G$1:$J$1)</f>
+        <f t="shared" ref="K93:K156" si="9">SLOPE(G93:J93, $G$1:$J$1)</f>
         <v>1.3093457943925232E-2</v>
       </c>
       <c r="L93" s="4">
-        <f>100*(K93/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>7.3913521355872591</v>
       </c>
       <c r="M93" s="4">
-        <f>100-L93</f>
+        <f t="shared" si="6"/>
         <v>92.608647864412745</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P93" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4">
         <v>1</v>
       </c>
@@ -5360,7 +5660,7 @@
         <v>13</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G94" s="4">
         <v>0.19900000000000001</v>
@@ -5375,22 +5675,25 @@
         <v>0.218</v>
       </c>
       <c r="K94" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.6074766355140178E-3</v>
       </c>
       <c r="L94" s="4">
-        <f>100*(K94/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>1.4719395045173767</v>
       </c>
       <c r="M94" s="4">
-        <f>100-L94</f>
+        <f t="shared" si="6"/>
         <v>98.52806049548262</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="P94" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>1</v>
       </c>
@@ -5407,7 +5710,7 @@
         <v>13</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G95" s="2">
         <v>0.17499999999999999</v>
@@ -5422,26 +5725,29 @@
         <v>0.252</v>
       </c>
       <c r="K95" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.1551401869158878E-2</v>
       </c>
       <c r="L95" s="2">
-        <f>100*(K95/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>6.5208502780769821</v>
       </c>
       <c r="M95" s="2">
-        <f>100-L95</f>
+        <f t="shared" si="6"/>
         <v>93.479149721923022</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O95">
         <f>_xlfn.T.TEST(K95:K97,$T$2:$T$7,1,3)</f>
         <v>3.9188175720891031E-6</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P95" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>1</v>
       </c>
@@ -5458,7 +5764,7 @@
         <v>13</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G96" s="2">
         <v>0.16200000000000001</v>
@@ -5473,22 +5779,25 @@
         <v>0.246</v>
       </c>
       <c r="K96" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.1878504672897193E-2</v>
       </c>
       <c r="L96" s="2">
-        <f>100*(K96/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>6.7055021872458269</v>
       </c>
       <c r="M96" s="2">
-        <f>100-L96</f>
+        <f t="shared" si="6"/>
         <v>93.294497812754173</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P96" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>1</v>
       </c>
@@ -5505,7 +5814,7 @@
         <v>13</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G97" s="2">
         <v>0.17</v>
@@ -5520,22 +5829,25 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="K97" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.0915887850467288E-2</v>
       </c>
       <c r="L97" s="2">
-        <f>100*(K97/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>6.1620979974060797</v>
       </c>
       <c r="M97" s="2">
-        <f>100-L97</f>
+        <f t="shared" si="6"/>
         <v>93.837902002593921</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P97" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4">
         <v>1</v>
       </c>
@@ -5552,7 +5864,7 @@
         <v>13</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G98" s="4">
         <v>0.19</v>
@@ -5567,26 +5879,29 @@
         <v>0.25800000000000001</v>
       </c>
       <c r="K98" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>9.8504672897196267E-3</v>
       </c>
       <c r="L98" s="4">
-        <f>100*(K98/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>5.5606603503989804</v>
       </c>
       <c r="M98" s="4">
-        <f>100-L98</f>
+        <f t="shared" ref="M98:M129" si="10">100-L98</f>
         <v>94.439339649601024</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O98" s="5">
         <f>_xlfn.T.TEST(K98:K100,$T$2:$T$7,1,3)</f>
         <v>1.3970775157204019E-6</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P98" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4">
         <v>1</v>
       </c>
@@ -5603,7 +5918,7 @@
         <v>13</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G99" s="4">
         <v>0.20200000000000001</v>
@@ -5618,22 +5933,25 @@
         <v>0.33200000000000002</v>
       </c>
       <c r="K99" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.8261682242990657E-2</v>
       </c>
       <c r="L99" s="4">
-        <f>100*(K99/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>10.308852300455037</v>
       </c>
       <c r="M99" s="4">
-        <f>100-L99</f>
+        <f t="shared" si="10"/>
         <v>89.691147699544956</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P99" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4">
         <v>1</v>
       </c>
@@ -5650,7 +5968,7 @@
         <v>13</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G100" s="4">
         <v>0.193</v>
@@ -5665,22 +5983,25 @@
         <v>0.315</v>
       </c>
       <c r="K100" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.7672897196261684E-2</v>
       </c>
       <c r="L100" s="4">
-        <f>100*(K100/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>9.9764788639511135</v>
       </c>
       <c r="M100" s="4">
-        <f>100-L100</f>
+        <f t="shared" si="10"/>
         <v>90.023521136048885</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P100" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>1</v>
       </c>
@@ -5697,7 +6018,7 @@
         <v>13</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G101" s="2">
         <v>0.192</v>
@@ -5712,26 +6033,29 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="K101" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8.3009345794392536E-2</v>
       </c>
       <c r="L101" s="2">
-        <f>100*(K101/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>46.859378778219877</v>
       </c>
       <c r="M101" s="2">
-        <f>100-L101</f>
+        <f t="shared" si="10"/>
         <v>53.140621221780123</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O101">
         <f>_xlfn.T.TEST(K101:K103,$T$2:$T$7,1,3)</f>
         <v>3.3370427180587833E-5</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P101" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>1</v>
       </c>
@@ -5748,7 +6072,7 @@
         <v>13</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G102" s="2">
         <v>0.18</v>
@@ -5763,22 +6087,25 @@
         <v>0.84299999999999997</v>
       </c>
       <c r="K102" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>9.843925233644861E-2</v>
       </c>
       <c r="L102" s="2">
-        <f>100*(K102/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>55.56967312215604</v>
       </c>
       <c r="M102" s="2">
-        <f>100-L102</f>
+        <f t="shared" si="10"/>
         <v>44.43032687784396</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P102" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <v>1</v>
       </c>
@@ -5795,7 +6122,7 @@
         <v>13</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G103" s="2">
         <v>0.185</v>
@@ -5810,22 +6137,25 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="K103" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>9.3102803738317752E-2</v>
       </c>
       <c r="L103" s="2">
-        <f>100*(K103/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>52.557209118287126</v>
       </c>
       <c r="M103" s="2">
-        <f>100-L103</f>
+        <f t="shared" si="10"/>
         <v>47.442790881712874</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P103" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4">
         <v>1</v>
       </c>
@@ -5842,7 +6172,7 @@
         <v>13</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G104" s="4">
         <v>0.17399999999999999</v>
@@ -5857,26 +6187,29 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="K104" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>9.9700934579439252E-2</v>
       </c>
       <c r="L104" s="4">
-        <f>100*(K104/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>56.281901914664445</v>
       </c>
       <c r="M104" s="4">
-        <f>100-L104</f>
+        <f t="shared" si="10"/>
         <v>43.718098085335555</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O104" s="5">
         <f>_xlfn.T.TEST(K104:K106,$T$2:$T$7,1,3)</f>
         <v>4.0305873288877296E-5</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P104" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4">
         <v>1</v>
       </c>
@@ -5893,7 +6226,7 @@
         <v>13</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G105" s="4">
         <v>0.20200000000000001</v>
@@ -5908,22 +6241,25 @@
         <v>0.8</v>
       </c>
       <c r="K105" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8.6485981308411231E-2</v>
       </c>
       <c r="L105" s="4">
-        <f>100*(K105/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>48.82196478424305</v>
       </c>
       <c r="M105" s="4">
-        <f>100-L105</f>
+        <f t="shared" si="10"/>
         <v>51.17803521575695</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P105" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4">
         <v>1</v>
       </c>
@@ -5940,7 +6276,7 @@
         <v>13</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G106" s="4">
         <v>0.17599999999999999</v>
@@ -5955,22 +6291,25 @@
         <v>0.8</v>
       </c>
       <c r="K106" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>9.2598130841121506E-2</v>
       </c>
       <c r="L106" s="4">
-        <f>100*(K106/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>52.272317601283781</v>
       </c>
       <c r="M106" s="4">
-        <f>100-L106</f>
+        <f t="shared" si="10"/>
         <v>47.727682398716219</v>
       </c>
       <c r="N106" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P106" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <v>1</v>
       </c>
@@ -5987,7 +6326,7 @@
         <v>13</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G107" s="2">
         <v>0.184</v>
@@ -6002,26 +6341,29 @@
         <v>0.50800000000000001</v>
       </c>
       <c r="K107" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>5.1467289719626171E-2</v>
       </c>
       <c r="L107" s="2">
-        <f>100*(K107/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>29.053658965509666</v>
       </c>
       <c r="M107" s="2">
-        <f>100-L107</f>
+        <f t="shared" si="10"/>
         <v>70.946341034490331</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O107">
         <f>_xlfn.T.TEST(K107:K109,$T$2:$T$7,1,3)</f>
         <v>4.6540565882893317E-6</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P107" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>1</v>
       </c>
@@ -6038,7 +6380,7 @@
         <v>13</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G108" s="2">
         <v>0.159</v>
@@ -6053,22 +6395,25 @@
         <v>0.60099999999999998</v>
       </c>
       <c r="K108" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>6.7373831775700943E-2</v>
       </c>
       <c r="L108" s="2">
-        <f>100*(K108/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>38.033017519949006</v>
       </c>
       <c r="M108" s="2">
-        <f>100-L108</f>
+        <f t="shared" si="10"/>
         <v>61.966982480050994</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P108" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <v>1</v>
       </c>
@@ -6085,7 +6430,7 @@
         <v>13</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G109" s="2">
         <v>0.17199999999999999</v>
@@ -6100,22 +6445,25 @@
         <v>0.60199999999999998</v>
       </c>
       <c r="K109" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>6.4084112149532718E-2</v>
       </c>
       <c r="L109" s="2">
-        <f>100*(K109/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>36.17594689059375</v>
       </c>
       <c r="M109" s="2">
-        <f>100-L109</f>
+        <f t="shared" si="10"/>
         <v>63.82405310940625</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P109" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4">
         <v>1</v>
       </c>
@@ -6147,26 +6495,29 @@
         <v>0.20599999999999999</v>
       </c>
       <c r="K110" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.5327102803738293E-3</v>
       </c>
       <c r="L110" s="4">
-        <f>100*(K110/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>1.4297333538502108</v>
       </c>
       <c r="M110" s="4">
-        <f>100-L110</f>
+        <f t="shared" si="10"/>
         <v>98.57026664614979</v>
       </c>
       <c r="N110" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O110" s="5">
         <f>_xlfn.T.TEST(K110:K112,$T$2:$T$7,1,3)</f>
         <v>2.1234608981372548E-6</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P110" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4">
         <v>1</v>
       </c>
@@ -6198,22 +6549,25 @@
         <v>0.24099999999999999</v>
       </c>
       <c r="K111" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>7.8971962616822423E-3</v>
       </c>
       <c r="L111" s="4">
-        <f>100*(K111/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>4.4580246642192964</v>
       </c>
       <c r="M111" s="4">
-        <f>100-L111</f>
+        <f t="shared" si="10"/>
         <v>95.541975335780705</v>
       </c>
       <c r="N111" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P111" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4">
         <v>1</v>
       </c>
@@ -6245,22 +6599,25 @@
         <v>0.23400000000000001</v>
       </c>
       <c r="K112" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>5.8504672897196274E-3</v>
       </c>
       <c r="L112" s="4">
-        <f>100*(K112/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>3.3026312897056571</v>
       </c>
       <c r="M112" s="4">
-        <f>100-L112</f>
+        <f t="shared" si="10"/>
         <v>96.697368710294342</v>
       </c>
       <c r="N112" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P112" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <v>1</v>
       </c>
@@ -6277,7 +6634,7 @@
         <v>13</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G113" s="2">
         <v>0.19800000000000001</v>
@@ -6292,26 +6649,29 @@
         <v>0.84299999999999997</v>
       </c>
       <c r="K113" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8.841121495327102E-2</v>
       </c>
       <c r="L113" s="2">
-        <f>100*(K113/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>49.908773163922532</v>
       </c>
       <c r="M113" s="2">
-        <f>100-L113</f>
+        <f t="shared" si="10"/>
         <v>50.091226836077468</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O113">
         <f>_xlfn.T.TEST(K113:K115,$T$2:$T$7,1,3)</f>
         <v>2.7994585110858984E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P113" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
         <v>1</v>
       </c>
@@ -6328,7 +6688,7 @@
         <v>13</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G114" s="2">
         <v>0.192</v>
@@ -6343,22 +6703,25 @@
         <v>0.92900000000000005</v>
       </c>
       <c r="K114" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.10010280373831777</v>
       </c>
       <c r="L114" s="2">
-        <f>100*(K114/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>56.508759974500464</v>
       </c>
       <c r="M114" s="2">
-        <f>100-L114</f>
+        <f t="shared" si="10"/>
         <v>43.491240025499536</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P114" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <v>1</v>
       </c>
@@ -6375,7 +6738,7 @@
         <v>13</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G115" s="2">
         <v>0.20899999999999999</v>
@@ -6390,22 +6753,25 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="K115" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.934579439252339E-3</v>
       </c>
       <c r="L115" s="2">
-        <f>100*(K115/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>1.6565914136862252</v>
       </c>
       <c r="M115" s="2">
-        <f>100-L115</f>
+        <f t="shared" si="10"/>
         <v>98.343408586313771</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P115" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4">
         <v>1</v>
       </c>
@@ -6422,7 +6788,7 @@
         <v>13</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G116" s="4">
         <v>0.219</v>
@@ -6437,26 +6803,29 @@
         <v>0.73699999999999999</v>
       </c>
       <c r="K116" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8.6271028037383179E-2</v>
       </c>
       <c r="L116" s="4">
-        <f>100*(K116/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>48.700622101074941</v>
       </c>
       <c r="M116" s="4">
-        <f>100-L116</f>
+        <f t="shared" si="10"/>
         <v>51.299377898925059</v>
       </c>
       <c r="N116" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O116" s="5">
         <f>_xlfn.T.TEST(K116:K118,$T$2:$T$7,1,3)</f>
         <v>6.9774461597114955E-5</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P116" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4">
         <v>1</v>
       </c>
@@ -6473,7 +6842,7 @@
         <v>13</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G117" s="4">
         <v>0.19900000000000001</v>
@@ -6488,22 +6857,25 @@
         <v>0.754</v>
       </c>
       <c r="K117" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8.4700934579439252E-2</v>
       </c>
       <c r="L117" s="4">
-        <f>100*(K117/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>47.814292937064479</v>
       </c>
       <c r="M117" s="4">
-        <f>100-L117</f>
+        <f t="shared" si="10"/>
         <v>52.185707062935521</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P117" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4">
         <v>1</v>
       </c>
@@ -6520,7 +6892,7 @@
         <v>13</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G118" s="4">
         <v>0.20100000000000001</v>
@@ -6535,22 +6907,25 @@
         <v>0.77800000000000002</v>
       </c>
       <c r="K118" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8.7084112149532725E-2</v>
       </c>
       <c r="L118" s="4">
-        <f>100*(K118/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>49.159613989580372</v>
       </c>
       <c r="M118" s="4">
-        <f>100-L118</f>
+        <f t="shared" si="10"/>
         <v>50.840386010419628</v>
       </c>
       <c r="N118" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P118" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <v>1</v>
       </c>
@@ -6582,26 +6957,29 @@
         <v>1.163</v>
       </c>
       <c r="K119" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.1321121495327103</v>
       </c>
       <c r="L119" s="2">
-        <f>100*(K119/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>74.578268228880447</v>
       </c>
       <c r="M119" s="2">
-        <f>100-L119</f>
+        <f t="shared" si="10"/>
         <v>25.421731771119553</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O119">
         <f>_xlfn.T.TEST(K119:K121,$T$2:$T$7,1,3)</f>
         <v>9.0711442429208811E-4</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P119" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <v>1</v>
       </c>
@@ -6633,22 +7011,25 @@
         <v>1.1060000000000001</v>
       </c>
       <c r="K120" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.13249532710280376</v>
       </c>
       <c r="L120" s="2">
-        <f>100*(K120/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>74.794574751049666</v>
       </c>
       <c r="M120" s="2">
-        <f>100-L120</f>
+        <f t="shared" si="10"/>
         <v>25.205425248950334</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P120" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
         <v>1</v>
       </c>
@@ -6680,22 +7061,25 @@
         <v>1.0049999999999999</v>
       </c>
       <c r="K121" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.12022429906542055</v>
       </c>
       <c r="L121" s="2">
-        <f>100*(K121/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>67.867490272801206</v>
       </c>
       <c r="M121" s="2">
-        <f>100-L121</f>
+        <f t="shared" si="10"/>
         <v>32.132509727198794</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P121" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <v>2</v>
       </c>
@@ -6727,26 +7111,29 @@
         <v>0.94799999999999995</v>
       </c>
       <c r="K122" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.1222056074766355</v>
       </c>
       <c r="L122" s="2">
-        <f>100*(K122/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>68.985953265481086</v>
       </c>
       <c r="M122" s="2">
-        <f>100-L122</f>
+        <f t="shared" si="10"/>
         <v>31.014046734518914</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O122">
         <f>_xlfn.T.TEST(K122:K124,$T$2:$T$7,1,3)</f>
         <v>3.6859125876841092E-3</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P122" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <v>2</v>
       </c>
@@ -6778,22 +7165,25 @@
         <v>0.875</v>
       </c>
       <c r="K123" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.10948598130841121</v>
       </c>
       <c r="L123" s="2">
-        <f>100*(K123/$R$2)</f>
+        <f t="shared" si="8"/>
         <v>61.805631883229651</v>
       </c>
       <c r="M123" s="2">
-        <f>100-L123</f>
+        <f t="shared" si="10"/>
         <v>38.194368116770349</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P123" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
         <v>2</v>
       </c>
@@ -6825,22 +7215,25 @@
         <v>1.246</v>
       </c>
       <c r="K124" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.14124299065420559</v>
       </c>
       <c r="L124" s="2">
-        <f>100*(K124/$R$2)</f>
+        <f t="shared" ref="L124:L155" si="11">100*(K124/$R$2)</f>
         <v>79.732694379107954</v>
       </c>
       <c r="M124" s="2">
-        <f>100-L124</f>
+        <f t="shared" si="10"/>
         <v>20.267305620892046</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P124" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
         <v>2</v>
       </c>
@@ -6872,26 +7265,29 @@
         <v>0.67100000000000004</v>
       </c>
       <c r="K125" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>7.3514018691588801E-2</v>
       </c>
       <c r="L125" s="2">
-        <f>100*(K125/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>41.499197643489936</v>
       </c>
       <c r="M125" s="2">
-        <f>100-L125</f>
+        <f t="shared" si="10"/>
         <v>58.500802356510064</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O125">
         <f>_xlfn.T.TEST(K125:K127,$T$2:$T$7,1,3)</f>
         <v>1.955648036509027E-4</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P125" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
         <v>2</v>
       </c>
@@ -6923,22 +7319,25 @@
         <v>0.46800000000000003</v>
       </c>
       <c r="K126" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4.7925233644859816E-2</v>
       </c>
       <c r="L126" s="2">
-        <f>100*(K126/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>27.054142577652723</v>
       </c>
       <c r="M126" s="2">
-        <f>100-L126</f>
+        <f t="shared" si="10"/>
         <v>72.945857422347274</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P126" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
         <v>2</v>
       </c>
@@ -6970,22 +7369,25 @@
         <v>0.42699999999999999</v>
       </c>
       <c r="K127" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.7130841121495325E-2</v>
       </c>
       <c r="L127" s="2">
-        <f>100*(K127/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>20.960629575080787</v>
       </c>
       <c r="M127" s="2">
-        <f>100-L127</f>
+        <f t="shared" si="10"/>
         <v>79.039370424919213</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P127" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <v>2</v>
       </c>
@@ -7017,26 +7419,29 @@
         <v>1.3080000000000001</v>
       </c>
       <c r="K128" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.1617943925233645</v>
       </c>
       <c r="L128" s="2">
-        <f>100*(K128/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>91.334110043744928</v>
       </c>
       <c r="M128" s="2">
-        <f>100-L128</f>
+        <f t="shared" si="10"/>
         <v>8.6658899562550715</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O128">
         <f>_xlfn.T.TEST(K128:K130,$T$2:$T$7,1,3)</f>
         <v>9.0542820620285985E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P128" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <v>2</v>
       </c>
@@ -7068,22 +7473,25 @@
         <v>1.3160000000000001</v>
       </c>
       <c r="K129" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.16163551401869161</v>
       </c>
       <c r="L129" s="2">
-        <f>100*(K129/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>91.244421973577204</v>
       </c>
       <c r="M129" s="2">
-        <f>100-L129</f>
+        <f t="shared" si="10"/>
         <v>8.7555780264227963</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P129" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <v>2</v>
       </c>
@@ -7115,22 +7523,25 @@
         <v>1.389</v>
       </c>
       <c r="K130" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.16654205607476635</v>
       </c>
       <c r="L130" s="2">
-        <f>100*(K130/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>94.014200611109885</v>
       </c>
       <c r="M130" s="2">
-        <f>100-L130</f>
+        <f t="shared" ref="M130:M161" si="12">100-L130</f>
         <v>5.9857993888901149</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P130" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
         <v>2</v>
       </c>
@@ -7162,26 +7573,29 @@
         <v>1.7809999999999999</v>
       </c>
       <c r="K131" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.2188504672897196</v>
       </c>
       <c r="L131" s="2">
-        <f>100*(K131/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>123.54267877162515</v>
       </c>
       <c r="M131" s="2">
-        <f>100-L131</f>
+        <f t="shared" si="12"/>
         <v>-23.542678771625148</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O131">
         <f>_xlfn.T.TEST(K131:K133,$T$2:$T$7,1,3)</f>
         <v>0.22776580565659046</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P131" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <v>2</v>
       </c>
@@ -7213,22 +7627,25 @@
         <v>1.4874000000000001</v>
       </c>
       <c r="K132" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.17417943925233645</v>
       </c>
       <c r="L132" s="2">
-        <f>100*(K132/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>98.325558901760786</v>
       </c>
       <c r="M132" s="2">
-        <f>100-L132</f>
+        <f t="shared" si="12"/>
         <v>1.6744410982392139</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P132" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
         <v>2</v>
       </c>
@@ -7260,22 +7677,25 @@
         <v>1.4881</v>
       </c>
       <c r="K133" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.17987196261682242</v>
       </c>
       <c r="L133" s="2">
-        <f>100*(K133/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>101.53902969818205</v>
       </c>
       <c r="M133" s="2">
-        <f>100-L133</f>
+        <f t="shared" si="12"/>
         <v>-1.5390296981820484</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P133" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <v>2</v>
       </c>
@@ -7307,26 +7727,29 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="K134" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.13695327102803734</v>
       </c>
       <c r="L134" s="2">
-        <f>100*(K134/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>77.311116484579344</v>
       </c>
       <c r="M134" s="2">
-        <f>100-L134</f>
+        <f t="shared" si="12"/>
         <v>22.688883515420656</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O134">
         <f>_xlfn.T.TEST(K134:K136,$T$2:$T$7,1,3)</f>
         <v>4.2444824437374001E-3</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P134" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
         <v>2</v>
       </c>
@@ -7358,22 +7781,25 @@
         <v>1.232</v>
       </c>
       <c r="K135" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.1437663551401869</v>
       </c>
       <c r="L135" s="2">
-        <f>100*(K135/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>81.157151964124765</v>
       </c>
       <c r="M135" s="2">
-        <f>100-L135</f>
+        <f t="shared" si="12"/>
         <v>18.842848035875235</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P135" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
         <v>2</v>
       </c>
@@ -7405,22 +7831,25 @@
         <v>1.1830000000000001</v>
       </c>
       <c r="K136" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.14185981308411214</v>
       </c>
       <c r="L136" s="2">
-        <f>100*(K136/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>80.080895122112068</v>
       </c>
       <c r="M136" s="2">
-        <f>100-L136</f>
+        <f t="shared" si="12"/>
         <v>19.919104877887932</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P136" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
         <v>1</v>
       </c>
@@ -7452,26 +7881,29 @@
         <v>0.997</v>
       </c>
       <c r="K137" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.11057009345794393</v>
       </c>
       <c r="L137" s="2">
-        <f>100*(K137/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>62.417621067903553</v>
       </c>
       <c r="M137" s="2">
-        <f>100-L137</f>
+        <f t="shared" si="12"/>
         <v>37.582378932096447</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O137">
         <f>_xlfn.T.TEST(K137:K139,$T$2:$T$7,1,3)</f>
         <v>2.5805378876123286E-3</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P137" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="2">
         <v>1</v>
       </c>
@@ -7503,22 +7935,25 @@
         <v>1.08</v>
       </c>
       <c r="K138" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.12261682242990656</v>
       </c>
       <c r="L138" s="2">
-        <f>100*(K138/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>69.218087094150505</v>
       </c>
       <c r="M138" s="2">
-        <f>100-L138</f>
+        <f t="shared" si="12"/>
         <v>30.781912905849495</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P138" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="2">
         <v>1</v>
       </c>
@@ -7550,22 +7985,25 @@
         <v>1.07</v>
       </c>
       <c r="K139" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.13975700934579441</v>
       </c>
       <c r="L139" s="2">
-        <f>100*(K139/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>78.893847134598062</v>
       </c>
       <c r="M139" s="2">
-        <f>100-L139</f>
+        <f t="shared" si="12"/>
         <v>21.106152865401938</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P139" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
         <v>1</v>
       </c>
@@ -7597,26 +8035,29 @@
         <v>0.628</v>
       </c>
       <c r="K140" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>5.9214953271028041E-2</v>
       </c>
       <c r="L140" s="2">
-        <f>100*(K140/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>33.427271328394632</v>
       </c>
       <c r="M140" s="2">
-        <f>100-L140</f>
+        <f t="shared" si="12"/>
         <v>66.572728671605375</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O140">
         <f>_xlfn.T.TEST(K140:K142,$T$2:$T$7,1,3)</f>
         <v>3.6727797156565077E-6</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P140" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="2">
         <v>1</v>
       </c>
@@ -7648,22 +8089,25 @@
         <v>0.53700000000000003</v>
       </c>
       <c r="K141" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4.8682242990654212E-2</v>
       </c>
       <c r="L141" s="2">
-        <f>100*(K141/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>27.481479853157769</v>
       </c>
       <c r="M141" s="2">
-        <f>100-L141</f>
+        <f t="shared" si="12"/>
         <v>72.518520146842235</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P141" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
         <v>1</v>
       </c>
@@ -7695,22 +8139,25 @@
         <v>0.44600000000000001</v>
       </c>
       <c r="K142" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.7607476635514017E-2</v>
       </c>
       <c r="L142" s="2">
-        <f>100*(K142/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>21.229693785583962</v>
       </c>
       <c r="M142" s="2">
-        <f>100-L142</f>
+        <f t="shared" si="12"/>
         <v>78.770306214416038</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P142" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
         <v>1</v>
       </c>
@@ -7742,26 +8189,29 @@
         <v>0.86499999999999999</v>
       </c>
       <c r="K143" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>9.0906542056074749E-2</v>
       </c>
       <c r="L143" s="2">
-        <f>100*(K143/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>51.317403442439158</v>
       </c>
       <c r="M143" s="2">
-        <f>100-L143</f>
+        <f t="shared" si="12"/>
         <v>48.682596557560842</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O143">
         <f>_xlfn.T.TEST(K143:K145,$T$2:$T$7,1,3)</f>
         <v>3.7696884316369944E-4</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P143" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
         <v>1</v>
       </c>
@@ -7793,22 +8243,25 @@
         <v>0.996</v>
       </c>
       <c r="K144" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.10761682242990654</v>
       </c>
       <c r="L144" s="2">
-        <f>100*(K144/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>60.750478116550532</v>
       </c>
       <c r="M144" s="2">
-        <f>100-L144</f>
+        <f t="shared" si="12"/>
         <v>39.249521883449468</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P144" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
         <v>1</v>
       </c>
@@ -7840,22 +8293,25 @@
         <v>0.78</v>
       </c>
       <c r="K145" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>7.571028037383179E-2</v>
       </c>
       <c r="L145" s="2">
-        <f>100*(K145/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>42.739003319337904</v>
       </c>
       <c r="M145" s="2">
-        <f>100-L145</f>
+        <f t="shared" si="12"/>
         <v>57.260996680662096</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P145" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <v>1</v>
       </c>
@@ -7887,26 +8343,29 @@
         <v>1.0329999999999999</v>
       </c>
       <c r="K146" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.12405607476635512</v>
       </c>
       <c r="L146" s="2">
-        <f>100*(K146/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>70.030555494493413</v>
       </c>
       <c r="M146" s="2">
-        <f>100-L146</f>
+        <f t="shared" si="12"/>
         <v>29.969444505506587</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O146">
         <f>_xlfn.T.TEST(K146:K148,$T$2:$T$7,1,3)</f>
         <v>8.903883952200316E-4</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P146" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="2">
         <v>1</v>
       </c>
@@ -7938,22 +8397,25 @@
         <v>1.069</v>
       </c>
       <c r="K147" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.12918691588785047</v>
       </c>
       <c r="L147" s="2">
-        <f>100*(K147/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>72.926952584027617</v>
       </c>
       <c r="M147" s="2">
-        <f>100-L147</f>
+        <f t="shared" si="12"/>
         <v>27.073047415972383</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P147" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
         <v>1</v>
       </c>
@@ -7985,22 +8447,25 @@
         <v>1.0412999999999999</v>
       </c>
       <c r="K148" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.12357102803738317</v>
       </c>
       <c r="L148" s="2">
-        <f>100*(K148/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>69.756743092040182</v>
       </c>
       <c r="M148" s="2">
-        <f>100-L148</f>
+        <f t="shared" si="12"/>
         <v>30.243256907959818</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P148" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
         <v>1</v>
       </c>
@@ -8032,26 +8497,29 @@
         <v>0.63</v>
       </c>
       <c r="K149" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>5.5429906542056082E-2</v>
       </c>
       <c r="L149" s="2">
-        <f>100*(K149/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>31.290584950869409</v>
       </c>
       <c r="M149" s="2">
-        <f>100-L149</f>
+        <f t="shared" si="12"/>
         <v>68.709415049130598</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O149">
         <f>_xlfn.T.TEST(K149:K151,$T$2:$T$7,1,3)</f>
         <v>2.0874288326053455E-3</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P149" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
         <v>1</v>
       </c>
@@ -8083,22 +8551,25 @@
         <v>0.63</v>
       </c>
       <c r="K150" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>5.3953271028037389E-2</v>
       </c>
       <c r="L150" s="2">
-        <f>100*(K150/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>30.457013475192902</v>
       </c>
       <c r="M150" s="2">
-        <f>100-L150</f>
+        <f t="shared" si="12"/>
         <v>69.542986524807105</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P150" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
         <v>1</v>
       </c>
@@ -8130,22 +8601,25 @@
         <v>0.94399999999999995</v>
       </c>
       <c r="K151" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>9.7457943925233659E-2</v>
       </c>
       <c r="L151" s="2">
-        <f>100*(K151/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>55.015717394649499</v>
       </c>
       <c r="M151" s="2">
-        <f>100-L151</f>
+        <f t="shared" si="12"/>
         <v>44.984282605350501</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P151" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
         <v>1</v>
       </c>
@@ -8177,26 +8651,29 @@
         <v>0.97</v>
       </c>
       <c r="K152" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.11607476635514019</v>
       </c>
       <c r="L152" s="2">
-        <f>100*(K152/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>65.525048910773563</v>
       </c>
       <c r="M152" s="2">
-        <f>100-L152</f>
+        <f t="shared" si="12"/>
         <v>34.474951089226437</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O152">
         <f>_xlfn.T.TEST(K152:K154,$T$2:$T$7,1,3)</f>
         <v>4.5983204815071808E-4</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P152" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
         <v>1</v>
       </c>
@@ -8228,22 +8705,25 @@
         <v>1.04</v>
       </c>
       <c r="K153" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.12814953271028037</v>
       </c>
       <c r="L153" s="2">
-        <f>100*(K153/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>72.3413422435207</v>
       </c>
       <c r="M153" s="2">
-        <f>100-L153</f>
+        <f t="shared" si="12"/>
         <v>27.6586577564793</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P153" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
         <v>1</v>
       </c>
@@ -8275,22 +8755,25 @@
         <v>0.91500000000000004</v>
       </c>
       <c r="K154" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.10606542056074766</v>
       </c>
       <c r="L154" s="2">
-        <f>100*(K154/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>59.874700490206855</v>
       </c>
       <c r="M154" s="2">
-        <f>100-L154</f>
+        <f t="shared" si="12"/>
         <v>40.125299509793145</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P154" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="2">
         <v>1</v>
       </c>
@@ -8322,26 +8805,29 @@
         <v>0.86499999999999999</v>
       </c>
       <c r="K155" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.11135514018691588</v>
       </c>
       <c r="L155" s="2">
-        <f>100*(K155/$R$2)</f>
+        <f t="shared" si="11"/>
         <v>62.86078564990877</v>
       </c>
       <c r="M155" s="2">
-        <f>100-L155</f>
+        <f t="shared" si="12"/>
         <v>37.13921435009123</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O155">
         <f>_xlfn.T.TEST(K155:K157,$T$2:$T$7,1,3)</f>
         <v>2.7486980850671813E-4</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P155" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
         <v>1</v>
       </c>
@@ -8373,22 +8859,25 @@
         <v>0.78500000000000003</v>
       </c>
       <c r="K156" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>9.0579439252336455E-2</v>
       </c>
       <c r="L156" s="2">
-        <f>100*(K156/$R$2)</f>
+        <f t="shared" ref="L156:L187" si="13">100*(K156/$R$2)</f>
         <v>51.132751533270323</v>
       </c>
       <c r="M156" s="2">
-        <f>100-L156</f>
+        <f t="shared" si="12"/>
         <v>48.867248466729677</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P156" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="2">
         <v>1</v>
       </c>
@@ -8420,22 +8909,25 @@
         <v>0.90900000000000003</v>
       </c>
       <c r="K157" s="2">
-        <f t="shared" ref="K157:K181" si="3">SLOPE(G157:J157, $G$1:$J$1)</f>
+        <f t="shared" ref="K157:K181" si="14">SLOPE(G157:J157, $G$1:$J$1)</f>
         <v>0.11357943925233645</v>
       </c>
       <c r="L157" s="2">
-        <f>100*(K157/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>64.116418632256938</v>
       </c>
       <c r="M157" s="2">
-        <f>100-L157</f>
+        <f t="shared" si="12"/>
         <v>35.883581367743062</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P157" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
         <v>1</v>
       </c>
@@ -8467,26 +8959,29 @@
         <v>1.224</v>
       </c>
       <c r="K158" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.13557009345794394</v>
       </c>
       <c r="L158" s="2">
-        <f>100*(K158/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>76.530302697236834</v>
       </c>
       <c r="M158" s="2">
-        <f>100-L158</f>
+        <f t="shared" si="12"/>
         <v>23.469697302763166</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O158">
         <f>_xlfn.T.TEST(K158:K160,$T$2:$T$7,1,3)</f>
         <v>1.7424389837781171E-3</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P158" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
         <v>1</v>
       </c>
@@ -8518,22 +9013,25 @@
         <v>1.103</v>
       </c>
       <c r="K159" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.11786915887850466</v>
       </c>
       <c r="L159" s="2">
-        <f>100*(K159/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>66.53799652678552</v>
       </c>
       <c r="M159" s="2">
-        <f>100-L159</f>
+        <f t="shared" si="12"/>
         <v>33.46200347321448</v>
       </c>
       <c r="N159" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P159" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
         <v>1</v>
       </c>
@@ -8565,22 +9063,25 @@
         <v>0.89600000000000002</v>
       </c>
       <c r="K160" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.10662616822429906</v>
       </c>
       <c r="L160" s="2">
-        <f>100*(K160/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>60.191246620210592</v>
       </c>
       <c r="M160" s="2">
-        <f>100-L160</f>
+        <f t="shared" si="12"/>
         <v>39.808753379789408</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P160" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
         <v>1</v>
       </c>
@@ -8612,26 +9113,29 @@
         <v>1.0489999999999999</v>
       </c>
       <c r="K161" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.11106542056074767</v>
       </c>
       <c r="L161" s="2">
-        <f>100*(K161/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>62.697236816073513</v>
       </c>
       <c r="M161" s="2">
-        <f>100-L161</f>
+        <f t="shared" si="12"/>
         <v>37.302763183926487</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O161">
         <f>_xlfn.T.TEST(K161:K163,$T$2:$T$7,1,3)</f>
         <v>1.9508147308634394E-4</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P161" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="2">
         <v>1</v>
       </c>
@@ -8663,22 +9167,25 @@
         <v>1.0497000000000001</v>
       </c>
       <c r="K162" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.11180467289719627</v>
       </c>
       <c r="L162" s="2">
-        <f>100*(K162/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>63.114550130795109</v>
       </c>
       <c r="M162" s="2">
-        <f>100-L162</f>
+        <f t="shared" ref="M162:M193" si="15">100-L162</f>
         <v>36.885449869204891</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P162" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="2">
         <v>1</v>
       </c>
@@ -8710,22 +9217,25 @@
         <v>1.0264</v>
       </c>
       <c r="K163" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.10425420560747663</v>
       </c>
       <c r="L163" s="2">
-        <f>100*(K163/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>58.852256490294785</v>
       </c>
       <c r="M163" s="2">
-        <f>100-L163</f>
+        <f t="shared" si="15"/>
         <v>41.147743509705215</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P163" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="2">
         <v>1</v>
       </c>
@@ -8757,26 +9267,29 @@
         <v>1.0449999999999999</v>
       </c>
       <c r="K164" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.13260747663551403</v>
       </c>
       <c r="L164" s="2">
-        <f>100*(K164/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>74.85788397705042</v>
       </c>
       <c r="M164" s="2">
-        <f>100-L164</f>
+        <f t="shared" si="15"/>
         <v>25.14211602294958</v>
       </c>
       <c r="N164" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O164">
         <f>_xlfn.T.TEST(K164:K166,$T$2:$T$7,1,3)</f>
         <v>1.6952786030448445E-3</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P164" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="2">
         <v>1</v>
       </c>
@@ -8808,22 +9321,25 @@
         <v>1.054</v>
       </c>
       <c r="K165" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.12900934579439252</v>
       </c>
       <c r="L165" s="2">
-        <f>100*(K165/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>72.826712976193093</v>
       </c>
       <c r="M165" s="2">
-        <f>100-L165</f>
+        <f t="shared" si="15"/>
         <v>27.173287023806907</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P165" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="2">
         <v>1</v>
       </c>
@@ -8855,22 +9371,25 @@
         <v>1.105</v>
       </c>
       <c r="K166" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.13507476635514018</v>
       </c>
       <c r="L166" s="2">
-        <f>100*(K166/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>76.250686949066846</v>
       </c>
       <c r="M166" s="2">
-        <f>100-L166</f>
+        <f t="shared" si="15"/>
         <v>23.749313050933154</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P166" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="2">
         <v>2</v>
       </c>
@@ -8902,26 +9421,29 @@
         <v>0.92700000000000005</v>
       </c>
       <c r="K167" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.109196261682243</v>
       </c>
       <c r="L167" s="2">
-        <f>100*(K167/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>61.642083049394394</v>
       </c>
       <c r="M167" s="2">
-        <f>100-L167</f>
+        <f t="shared" si="15"/>
         <v>38.357916950605606</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O167">
         <f>_xlfn.T.TEST(K167:K169,$T$2:$T$7,1,3)</f>
         <v>1.8705591836286196E-4</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P167" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="2">
         <v>2</v>
       </c>
@@ -8953,22 +9475,25 @@
         <v>0.88700000000000001</v>
       </c>
       <c r="K168" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.10096261682242992</v>
       </c>
       <c r="L168" s="2">
-        <f>100*(K168/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>56.994130707172864</v>
       </c>
       <c r="M168" s="2">
-        <f>100-L168</f>
+        <f t="shared" si="15"/>
         <v>43.005869292827136</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P168" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="2">
         <v>2</v>
       </c>
@@ -9000,22 +9525,25 @@
         <v>1.0212000000000001</v>
       </c>
       <c r="K169" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.12045420560747666</v>
       </c>
       <c r="L169" s="2">
-        <f>100*(K169/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>67.997274186102757</v>
       </c>
       <c r="M169" s="2">
-        <f>100-L169</f>
+        <f t="shared" si="15"/>
         <v>32.002725813897243</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P169" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="2">
         <v>2</v>
       </c>
@@ -9032,7 +9560,7 @@
         <v>22</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G170" s="2">
         <v>0.16600000000000001</v>
@@ -9047,26 +9575,29 @@
         <v>0.21199999999999999</v>
       </c>
       <c r="K170" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>6.8971962616822431E-3</v>
       </c>
       <c r="L170" s="2">
-        <f>100*(K170/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>3.8935173990459657</v>
       </c>
       <c r="M170" s="2">
-        <f>100-L170</f>
+        <f t="shared" si="15"/>
         <v>96.106482600954038</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O170">
         <f>_xlfn.T.TEST(K170:K172,$T$2:$T$7,1,3)</f>
         <v>2.7343103854308752E-6</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P170" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="2">
         <v>2</v>
       </c>
@@ -9083,7 +9614,7 @@
         <v>22</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G171" s="2">
         <v>0.18</v>
@@ -9098,22 +9629,25 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="K171" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>3.9345794392523356E-3</v>
       </c>
       <c r="L171" s="2">
-        <f>100*(K171/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>2.2210986788595544</v>
       </c>
       <c r="M171" s="2">
-        <f>100-L171</f>
+        <f t="shared" si="15"/>
         <v>97.778901321140452</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P171" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="2">
         <v>2</v>
       </c>
@@ -9130,7 +9664,7 @@
         <v>22</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G172" s="2">
         <v>0.17</v>
@@ -9145,22 +9679,25 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="K172" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>3.962616822429905E-3</v>
       </c>
       <c r="L172" s="2">
-        <f>100*(K172/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>2.2369259853597407</v>
       </c>
       <c r="M172" s="2">
-        <f>100-L172</f>
+        <f t="shared" si="15"/>
         <v>97.763074014640253</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P172" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="2">
         <v>2</v>
       </c>
@@ -9177,7 +9714,7 @@
         <v>22</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G173" s="2">
         <v>0.16200000000000001</v>
@@ -9192,26 +9729,29 @@
         <v>0.222</v>
       </c>
       <c r="K173" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>8.3457943925233629E-3</v>
       </c>
       <c r="L173" s="2">
-        <f>100*(K173/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>4.7112615682222847</v>
       </c>
       <c r="M173" s="2">
-        <f>100-L173</f>
+        <f t="shared" si="15"/>
         <v>95.288738431777716</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O173">
         <f>_xlfn.T.TEST(K173:K175,$T$2:$T$7,1,3)</f>
         <v>1.9485538788902029E-6</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P173" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="2">
         <v>2</v>
       </c>
@@ -9228,7 +9768,7 @@
         <v>22</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G174" s="2">
         <v>0.183</v>
@@ -9243,22 +9783,25 @@
         <v>0.20200000000000001</v>
       </c>
       <c r="K174" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>2.7102803738317783E-3</v>
       </c>
       <c r="L174" s="2">
-        <f>100*(K174/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>1.5299729616847304</v>
       </c>
       <c r="M174" s="2">
-        <f>100-L174</f>
+        <f t="shared" si="15"/>
         <v>98.470027038315266</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P174" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="2">
         <v>2</v>
       </c>
@@ -9275,7 +9818,7 @@
         <v>22</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G175" s="2">
         <v>0.16700000000000001</v>
@@ -9290,22 +9833,25 @@
         <v>0.19800000000000001</v>
       </c>
       <c r="K175" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>4.1028037383177571E-3</v>
       </c>
       <c r="L175" s="2">
-        <f>100*(K175/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>2.3160625178606757</v>
       </c>
       <c r="M175" s="2">
-        <f>100-L175</f>
+        <f t="shared" si="15"/>
         <v>97.683937482139328</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P175" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="2">
         <v>2</v>
       </c>
@@ -9337,26 +9883,29 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="K176" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>-5.9813084112149591E-4</v>
       </c>
       <c r="L176" s="2">
-        <f>100*(K176/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>-0.33764920533731985</v>
       </c>
       <c r="M176" s="2">
-        <f>100-L176</f>
+        <f t="shared" si="15"/>
         <v>100.33764920533731</v>
       </c>
       <c r="N176" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O176">
         <f>_xlfn.T.TEST(K176:K178,$T$2:$T$7,1,3)</f>
         <v>2.6938799930953E-6</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P176" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="2">
         <v>2</v>
       </c>
@@ -9388,22 +9937,25 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="K177" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>-1.6168224299065435E-3</v>
       </c>
       <c r="L177" s="2">
-        <f>100*(K177/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>-0.91270800817744246</v>
       </c>
       <c r="M177" s="2">
-        <f>100-L177</f>
+        <f t="shared" si="15"/>
         <v>100.91270800817745</v>
       </c>
       <c r="N177" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P177" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="2">
         <v>2</v>
       </c>
@@ -9435,22 +9987,25 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="K178" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>-1.6542056074766371E-3</v>
       </c>
       <c r="L178" s="2">
-        <f>100*(K178/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>-0.93381108351102504</v>
       </c>
       <c r="M178" s="2">
-        <f>100-L178</f>
+        <f t="shared" si="15"/>
         <v>100.93381108351103</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P178" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="2">
         <v>2</v>
       </c>
@@ -9482,26 +10037,29 @@
         <v>0.157</v>
       </c>
       <c r="K179" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>2.1495327102803756E-4</v>
       </c>
       <c r="L179" s="2">
-        <f>100*(K179/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>0.12134268316809928</v>
       </c>
       <c r="M179" s="2">
-        <f>100-L179</f>
+        <f t="shared" si="15"/>
         <v>99.878657316831905</v>
       </c>
       <c r="N179" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O179">
         <f>_xlfn.T.TEST(K179:K181,$T$2:$T$7,1,3)</f>
         <v>2.7757412398627307E-6</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P179" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="2">
         <v>2</v>
       </c>
@@ -9533,22 +10091,25 @@
         <v>0.154</v>
       </c>
       <c r="K180" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>-4.5794392523364528E-4</v>
       </c>
       <c r="L180" s="2">
-        <f>100*(K180/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>-0.25851267283638546</v>
       </c>
       <c r="M180" s="2">
-        <f>100-L180</f>
+        <f t="shared" si="15"/>
         <v>100.25851267283639</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P180" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="2">
         <v>2</v>
       </c>
@@ -9580,22 +10141,25 @@
         <v>0.158</v>
       </c>
       <c r="K181" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>-8.5981308411215026E-4</v>
       </c>
       <c r="L181" s="2">
-        <f>100*(K181/$R$2)</f>
+        <f t="shared" si="13"/>
         <v>-0.48537073267239711</v>
       </c>
       <c r="M181" s="2">
-        <f>100-L181</f>
+        <f t="shared" si="15"/>
         <v>100.48537073267239</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="P181" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -9611,7 +10175,7 @@
       <c r="M182" s="2"/>
       <c r="N182" s="2"/>
     </row>
-    <row r="183" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -9627,7 +10191,7 @@
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
     </row>
-    <row r="184" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -9643,7 +10207,7 @@
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
     </row>
-    <row r="185" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
